--- a/Game企画書.xlsx
+++ b/Game企画書.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -443,21 +443,13 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3">
-        <v>44867</v>
-      </c>
-      <c r="C1" s="3">
-        <v>44869</v>
-      </c>
-      <c r="D1" s="3">
-        <v>44872</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="3">
         <v>44874</v>
       </c>
-      <c r="F1" s="3">
-        <v>44876</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">

--- a/Game企画書.xlsx
+++ b/Game企画書.xlsx
@@ -24,66 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールの設定</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが消えたらゲームオーバー</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
     <rPh sb="4" eb="6">
-      <t>セッテイ</t>
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム（ジャンプ台、）</t>
+    <t>ＢＧＭとSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れたらゲームオーバーのトラップ</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフを増やす（３個）</t>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
     <rPh sb="9" eb="10">
-      <t>ダイ</t>
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージによって背景、コンセプトを変えたい</t>
-    <rPh sb="8" eb="10">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージをできる限り作る</t>
-    <rPh sb="8" eb="9">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やりたいこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひっかけ要素</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウソ</t>
-    </rPh>
+    <t>ライフが０でゲームオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -441,20 +423,18 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3">
-        <v>44874</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -470,42 +450,27 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
